--- a/mbs-perturbation/chain/welm/nearmiss/chain_welm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/chain/welm/nearmiss/chain_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.8883861236802413</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.625</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.8311688311688312</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9193061840120664</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6875</v>
+        <v>0.8082191780821917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.8220211161387632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0.8099506127675142</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.9038461538461539</v>
       </c>
     </row>
   </sheetData>
